--- a/australia_wildfire_2025.xlsx
+++ b/australia_wildfire_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="21">
   <si>
     <t>Region</t>
   </si>
@@ -40,40 +40,43 @@
     <t>Western Australia</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
   </si>
   <si>
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>528</v>
+        <v>278.7139415023726</v>
       </c>
       <c r="D2">
-        <v>25409</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -470,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>863</v>
+        <v>24.34118189561313</v>
       </c>
       <c r="D3">
-        <v>29012</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -484,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>757</v>
+        <v>311.6315120362424</v>
       </c>
       <c r="D4">
-        <v>27286</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -498,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>509</v>
+        <v>21.85041729215039</v>
       </c>
       <c r="D5">
-        <v>36087</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -512,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>1416</v>
+        <v>338.8258943715892</v>
       </c>
       <c r="D6">
-        <v>26424</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -526,13 +529,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>1164</v>
+        <v>127.8134818810674</v>
       </c>
       <c r="D7">
-        <v>25520</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -540,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>361</v>
+        <v>437.3707970520002</v>
       </c>
       <c r="D8">
-        <v>26535</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -554,13 +557,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>747</v>
+        <v>52.03076809766107</v>
       </c>
       <c r="D9">
-        <v>28811</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -568,13 +571,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>1334</v>
+        <v>155.564969283288</v>
       </c>
       <c r="D10">
-        <v>34863</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -582,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>354</v>
+        <v>135.3131567603231</v>
       </c>
       <c r="D11">
-        <v>34195</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -596,13 +599,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>707</v>
+        <v>378.8034760612326</v>
       </c>
       <c r="D12">
-        <v>36731</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -610,13 +613,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>1416</v>
+        <v>256.7772178884717</v>
       </c>
       <c r="D13">
-        <v>31873</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -624,13 +627,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>751</v>
+        <v>303.9388759222342</v>
       </c>
       <c r="D14">
-        <v>32359</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -638,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>869</v>
+        <v>43.6933534159614</v>
       </c>
       <c r="D15">
-        <v>38261</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -652,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>313</v>
+        <v>389.4009047124774</v>
       </c>
       <c r="D16">
-        <v>37432</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -666,13 +669,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>626</v>
+        <v>283.4123250304381</v>
       </c>
       <c r="D17">
-        <v>36438</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -680,13 +683,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>1165</v>
+        <v>492.0681071362123</v>
       </c>
       <c r="D18">
-        <v>30574</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -694,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>869</v>
+        <v>298.3128747926796</v>
       </c>
       <c r="D19">
-        <v>27547</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -708,13 +711,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>740</v>
+        <v>345.6474470588622</v>
       </c>
       <c r="D20">
-        <v>37509</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -722,13 +725,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>989</v>
+        <v>218.763470521532</v>
       </c>
       <c r="D21">
-        <v>26674</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -736,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>489</v>
+        <v>76.87183633915629</v>
       </c>
       <c r="D22">
-        <v>31224</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -750,13 +753,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>498</v>
+        <v>273.8276638140104</v>
       </c>
       <c r="D23">
-        <v>30881</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -764,13 +767,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>1004</v>
+        <v>316.5277621947243</v>
       </c>
       <c r="D24">
-        <v>34891</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -778,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>841</v>
+        <v>96.28907139099609</v>
       </c>
       <c r="D25">
-        <v>38223</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -792,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>388</v>
+        <v>102.8523929388276</v>
       </c>
       <c r="D26">
-        <v>36955</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -806,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>1240</v>
+        <v>346.0590490058419</v>
       </c>
       <c r="D27">
-        <v>33785</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -820,13 +823,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>555</v>
+        <v>121.6383022961248</v>
       </c>
       <c r="D28">
-        <v>31201</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -834,13 +837,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>461</v>
+        <v>34.77313696438554</v>
       </c>
       <c r="D29">
-        <v>34044</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -848,13 +851,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>900</v>
+        <v>496.0639080913938</v>
       </c>
       <c r="D30">
-        <v>38588</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -862,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>1040</v>
+        <v>103.05348884092</v>
       </c>
       <c r="D31">
-        <v>34459</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -876,13 +879,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>693</v>
+        <v>162.7595154509647</v>
       </c>
       <c r="D32">
-        <v>36543</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -890,13 +893,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>442</v>
+        <v>186.7483732443199</v>
       </c>
       <c r="D33">
-        <v>25750</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -904,13 +907,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>766</v>
+        <v>337.6169590357245</v>
       </c>
       <c r="D34">
-        <v>37665</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -918,13 +921,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>892</v>
+        <v>398.5311182826187</v>
       </c>
       <c r="D35">
-        <v>26307</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -932,13 +935,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>776</v>
+        <v>21.33297520952246</v>
       </c>
       <c r="D36">
-        <v>39196</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -946,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>506</v>
+        <v>247.3740786595825</v>
       </c>
       <c r="D37">
-        <v>31227</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -960,13 +963,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>869</v>
+        <v>467.4833494225744</v>
       </c>
       <c r="D38">
-        <v>32428</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -974,13 +977,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>1047</v>
+        <v>184.1299441409816</v>
       </c>
       <c r="D39">
-        <v>27664</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -988,13 +991,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>1058</v>
+        <v>162.3286576422435</v>
       </c>
       <c r="D40">
-        <v>30820</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1002,13 +1005,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>729</v>
+        <v>488.9387264291097</v>
       </c>
       <c r="D41">
-        <v>35980</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1016,13 +1019,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>846</v>
+        <v>179.2756069983013</v>
       </c>
       <c r="D42">
-        <v>36498</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1030,13 +1033,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>446</v>
+        <v>286.2200989155533</v>
       </c>
       <c r="D43">
-        <v>34980</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1044,13 +1047,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>650</v>
+        <v>438.4473553297597</v>
       </c>
       <c r="D44">
-        <v>33751</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1058,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>801</v>
+        <v>359.7602442873345</v>
       </c>
       <c r="D45">
-        <v>27677</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1072,13 +1075,13 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46">
-        <v>1246</v>
+        <v>36.41542223429148</v>
       </c>
       <c r="D46">
-        <v>31216</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1086,13 +1089,13 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>852</v>
+        <v>23.91725570111547</v>
       </c>
       <c r="D47">
-        <v>35485</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1100,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>1440</v>
+        <v>93.61285223132298</v>
       </c>
       <c r="D48">
-        <v>28598</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1114,13 +1117,181 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>273.0797197029694</v>
+      </c>
+      <c r="D49">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>283.1207757319353</v>
+      </c>
+      <c r="D50">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>305.9755423869648</v>
+      </c>
+      <c r="D51">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>283.0055120358957</v>
+      </c>
+      <c r="D52">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>225.1954404015029</v>
+      </c>
+      <c r="D53">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>487.1631973488064</v>
+      </c>
+      <c r="D54">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>67.13325193598959</v>
+      </c>
+      <c r="D55">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>297.542321172378</v>
+      </c>
+      <c r="D56">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>170.687070433057</v>
+      </c>
+      <c r="D57">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>297.2887372133671</v>
+      </c>
+      <c r="D58">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>103.9840507959645</v>
+      </c>
+      <c r="D59">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
         <v>19</v>
       </c>
-      <c r="C49">
-        <v>964</v>
-      </c>
-      <c r="D49">
-        <v>38809</v>
+      <c r="C60">
+        <v>59.17101187063376</v>
+      </c>
+      <c r="D60">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>194.8255190711311</v>
+      </c>
+      <c r="D61">
+        <v>3682</v>
       </c>
     </row>
   </sheetData>
